--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2372"/>
+  <dimension ref="A1:E2385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40524,6 +40524,227 @@
         <v>0.6586817233395152</v>
       </c>
     </row>
+    <row r="2373" spans="1:5">
+      <c r="A2373" s="2">
+        <v>43747</v>
+      </c>
+      <c r="B2373">
+        <v>0.00266271598434194</v>
+      </c>
+      <c r="C2373">
+        <v>0.007346693640850447</v>
+      </c>
+      <c r="D2373">
+        <v>0.01222574990790539</v>
+      </c>
+      <c r="E2373">
+        <v>0.7078922192149939</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:5">
+      <c r="A2374" s="2">
+        <v>43748</v>
+      </c>
+      <c r="B2374">
+        <v>0.002166035755722846</v>
+      </c>
+      <c r="C2374">
+        <v>0.007162178789929901</v>
+      </c>
+      <c r="D2374">
+        <v>0.01222125562903509</v>
+      </c>
+      <c r="E2374">
+        <v>0.6104304179077389</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:5">
+      <c r="A2375" s="2">
+        <v>43749</v>
+      </c>
+      <c r="B2375">
+        <v>0.001713344847540456</v>
+      </c>
+      <c r="C2375">
+        <v>0.00500895435795796</v>
+      </c>
+      <c r="D2375">
+        <v>0.01214732694218764</v>
+      </c>
+      <c r="E2375">
+        <v>0.4528016025457381</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:5">
+      <c r="A2376" s="2">
+        <v>43752</v>
+      </c>
+      <c r="B2376">
+        <v>0.002241400119812691</v>
+      </c>
+      <c r="C2376">
+        <v>0.006574430201402217</v>
+      </c>
+      <c r="D2376">
+        <v>0.01218565103038148</v>
+      </c>
+      <c r="E2376">
+        <v>0.5999640700232839</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:5">
+      <c r="A2377" s="2">
+        <v>43753</v>
+      </c>
+      <c r="B2377">
+        <v>0.002685672460522436</v>
+      </c>
+      <c r="C2377">
+        <v>0.003172809127308991</v>
+      </c>
+      <c r="D2377">
+        <v>0.01223745698104171</v>
+      </c>
+      <c r="E2377">
+        <v>0.7326032929832376</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:5">
+      <c r="A2378" s="2">
+        <v>43754</v>
+      </c>
+      <c r="B2378">
+        <v>0.002335486519841166</v>
+      </c>
+      <c r="C2378">
+        <v>0.006345075705636732</v>
+      </c>
+      <c r="D2378">
+        <v>0.01228568386029971</v>
+      </c>
+      <c r="E2378">
+        <v>0.6256088652497469</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:5">
+      <c r="A2379" s="2">
+        <v>43755</v>
+      </c>
+      <c r="B2379">
+        <v>0.002027984412529755</v>
+      </c>
+      <c r="C2379">
+        <v>0.003254006568660025</v>
+      </c>
+      <c r="D2379">
+        <v>0.01209030608765609</v>
+      </c>
+      <c r="E2379">
+        <v>0.5249946770220958</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:5">
+      <c r="A2380" s="2">
+        <v>43756</v>
+      </c>
+      <c r="B2380">
+        <v>0.003323881062737879</v>
+      </c>
+      <c r="C2380">
+        <v>0.003445523783959525</v>
+      </c>
+      <c r="D2380">
+        <v>0.01226742009216491</v>
+      </c>
+      <c r="E2380">
+        <v>0.8676043307707882</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:5">
+      <c r="A2381" s="2">
+        <v>43759</v>
+      </c>
+      <c r="B2381">
+        <v>0.002667994290507109</v>
+      </c>
+      <c r="C2381">
+        <v>0.007553120079500775</v>
+      </c>
+      <c r="D2381">
+        <v>0.01232695755943964</v>
+      </c>
+      <c r="E2381">
+        <v>0.6975756399597153</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:5">
+      <c r="A2382" s="2">
+        <v>43760</v>
+      </c>
+      <c r="B2382">
+        <v>0.002510420972582469</v>
+      </c>
+      <c r="C2382">
+        <v>0.005630747228816619</v>
+      </c>
+      <c r="D2382">
+        <v>0.01224642386157568</v>
+      </c>
+      <c r="E2382">
+        <v>0.6926350271945863</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:5">
+      <c r="A2383" s="2">
+        <v>43761</v>
+      </c>
+      <c r="B2383">
+        <v>0.002556839417177341</v>
+      </c>
+      <c r="C2383">
+        <v>0.006789796361290987</v>
+      </c>
+      <c r="D2383">
+        <v>0.01188821982601305</v>
+      </c>
+      <c r="E2383">
+        <v>0.6854879785149566</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:5">
+      <c r="A2384" s="2">
+        <v>43762</v>
+      </c>
+      <c r="B2384">
+        <v>0.002005800063841848</v>
+      </c>
+      <c r="C2384">
+        <v>0.004318016700289048</v>
+      </c>
+      <c r="D2384">
+        <v>0.01209384607375378</v>
+      </c>
+      <c r="E2384">
+        <v>0.5446364062163573</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:5">
+      <c r="A2385" s="2">
+        <v>43763</v>
+      </c>
+      <c r="B2385">
+        <v>0.0019791316005515</v>
+      </c>
+      <c r="C2385">
+        <v>0.007330119534216782</v>
+      </c>
+      <c r="D2385">
+        <v>0.01210874181897267</v>
+      </c>
+      <c r="E2385">
+        <v>0.5310137508517206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2385"/>
+  <dimension ref="A1:E2395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40745,6 +40745,176 @@
         <v>0.5310137508517206</v>
       </c>
     </row>
+    <row r="2386" spans="1:5">
+      <c r="A2386" s="2">
+        <v>43766</v>
+      </c>
+      <c r="B2386">
+        <v>0.002577675812771365</v>
+      </c>
+      <c r="C2386">
+        <v>0.004682002966469087</v>
+      </c>
+      <c r="D2386">
+        <v>0.01194551529542655</v>
+      </c>
+      <c r="E2386">
+        <v>0.6917683567982218</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:5">
+      <c r="A2387" s="2">
+        <v>43767</v>
+      </c>
+      <c r="B2387">
+        <v>0.003270815006005161</v>
+      </c>
+      <c r="C2387">
+        <v>0.008422655846296707</v>
+      </c>
+      <c r="D2387">
+        <v>0.0122412964002918</v>
+      </c>
+      <c r="E2387">
+        <v>0.8574743141995477</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:5">
+      <c r="A2388" s="2">
+        <v>43768</v>
+      </c>
+      <c r="B2388">
+        <v>0.003401033287419595</v>
+      </c>
+      <c r="C2388">
+        <v>0.01336385903432476</v>
+      </c>
+      <c r="D2388">
+        <v>0.01212993511869587</v>
+      </c>
+      <c r="E2388">
+        <v>0.8503270229992308</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:5">
+      <c r="A2389" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B2389">
+        <v>0.003093228187257616</v>
+      </c>
+      <c r="C2389">
+        <v>0.002458485195255437</v>
+      </c>
+      <c r="D2389">
+        <v>0.01211161438412452</v>
+      </c>
+      <c r="E2389">
+        <v>0.7680582467858215</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:5">
+      <c r="A2390" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B2390">
+        <v>0.002345026753480048</v>
+      </c>
+      <c r="C2390">
+        <v>0.008472783337729776</v>
+      </c>
+      <c r="D2390">
+        <v>0.01222050592522675</v>
+      </c>
+      <c r="E2390">
+        <v>0.6398718685799439</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:5">
+      <c r="A2391" s="2">
+        <v>43773</v>
+      </c>
+      <c r="B2391">
+        <v>0.001760937328818786</v>
+      </c>
+      <c r="C2391">
+        <v>0</v>
+      </c>
+      <c r="D2391">
+        <v>0.01233332422707724</v>
+      </c>
+      <c r="E2391">
+        <v>0.4663068437712861</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:5">
+      <c r="A2392" s="2">
+        <v>43774</v>
+      </c>
+      <c r="B2392">
+        <v>0.001654015316268792</v>
+      </c>
+      <c r="C2392">
+        <v>0.00472870122363098</v>
+      </c>
+      <c r="D2392">
+        <v>0.01221689391195879</v>
+      </c>
+      <c r="E2392">
+        <v>0.4380550213720412</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:5">
+      <c r="A2393" s="2">
+        <v>43775</v>
+      </c>
+      <c r="B2393">
+        <v>0.002814419321857377</v>
+      </c>
+      <c r="C2393">
+        <v>0.005370948856055968</v>
+      </c>
+      <c r="D2393">
+        <v>0.01236414731333317</v>
+      </c>
+      <c r="E2393">
+        <v>0.7307718848621949</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:5">
+      <c r="A2394" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B2394">
+        <v>0.001804322585043331</v>
+      </c>
+      <c r="C2394">
+        <v>0.007812515464834737</v>
+      </c>
+      <c r="D2394">
+        <v>0.01229622959755601</v>
+      </c>
+      <c r="E2394">
+        <v>0.4817554008220822</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:5">
+      <c r="A2395" s="2">
+        <v>43777</v>
+      </c>
+      <c r="B2395">
+        <v>0.001784289650312631</v>
+      </c>
+      <c r="C2395">
+        <v>0.005740238102192981</v>
+      </c>
+      <c r="D2395">
+        <v>0.01223278875563874</v>
+      </c>
+      <c r="E2395">
+        <v>0.481435743937443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2395"/>
+  <dimension ref="A1:E2400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40915,6 +40915,91 @@
         <v>0.481435743937443</v>
       </c>
     </row>
+    <row r="2396" spans="1:5">
+      <c r="A2396" s="2">
+        <v>43780</v>
+      </c>
+      <c r="B2396">
+        <v>0.006162361591062551</v>
+      </c>
+      <c r="C2396">
+        <v>0.02219192256335301</v>
+      </c>
+      <c r="D2396">
+        <v>0.01201095465757502</v>
+      </c>
+      <c r="E2396">
+        <v>1.521711104106734</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:5">
+      <c r="A2397" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B2397">
+        <v>0.002103369529053634</v>
+      </c>
+      <c r="C2397">
+        <v>0.0005266460023358616</v>
+      </c>
+      <c r="D2397">
+        <v>0.01188612348713976</v>
+      </c>
+      <c r="E2397">
+        <v>0.5579030026259648</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:5">
+      <c r="A2398" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B2398">
+        <v>0.003083175775306283</v>
+      </c>
+      <c r="C2398">
+        <v>0.007382042551559604</v>
+      </c>
+      <c r="D2398">
+        <v>0.01186794744557565</v>
+      </c>
+      <c r="E2398">
+        <v>0.7789353122473486</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:5">
+      <c r="A2399" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B2399">
+        <v>0.002003158674992137</v>
+      </c>
+      <c r="C2399">
+        <v>0.007056353571782059</v>
+      </c>
+      <c r="D2399">
+        <v>0.01185027614069348</v>
+      </c>
+      <c r="E2399">
+        <v>0.5312234165625707</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:5">
+      <c r="A2400" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B2400">
+        <v>0.004127007257720063</v>
+      </c>
+      <c r="C2400">
+        <v>0.004709863726853411</v>
+      </c>
+      <c r="D2400">
+        <v>0.01193563314372048</v>
+      </c>
+      <c r="E2400">
+        <v>1.040585842636944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2400"/>
+  <dimension ref="A1:E2410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41000,6 +41000,176 @@
         <v>1.040585842636944</v>
       </c>
     </row>
+    <row r="2401" spans="1:5">
+      <c r="A2401" s="2">
+        <v>43787</v>
+      </c>
+      <c r="B2401">
+        <v>0.002426241161026135</v>
+      </c>
+      <c r="C2401">
+        <v>0.005452174434864608</v>
+      </c>
+      <c r="D2401">
+        <v>0.0118559982845967</v>
+      </c>
+      <c r="E2401">
+        <v>0.6461593871629594</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:5">
+      <c r="A2402" s="2">
+        <v>43788</v>
+      </c>
+      <c r="B2402">
+        <v>0.003741537468667487</v>
+      </c>
+      <c r="C2402">
+        <v>0.002551334450618969</v>
+      </c>
+      <c r="D2402">
+        <v>0.01172072187565487</v>
+      </c>
+      <c r="E2402">
+        <v>0.9618079656151982</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:5">
+      <c r="A2403" s="2">
+        <v>43789</v>
+      </c>
+      <c r="B2403">
+        <v>0.002870365052225979</v>
+      </c>
+      <c r="C2403">
+        <v>0.00645364068914181</v>
+      </c>
+      <c r="D2403">
+        <v>0.01197445409355634</v>
+      </c>
+      <c r="E2403">
+        <v>0.7041969347393904</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:5">
+      <c r="A2404" s="2">
+        <v>43790</v>
+      </c>
+      <c r="B2404">
+        <v>0.002181610083353845</v>
+      </c>
+      <c r="C2404">
+        <v>0.001960831067281522</v>
+      </c>
+      <c r="D2404">
+        <v>0.01194034226286325</v>
+      </c>
+      <c r="E2404">
+        <v>0.5639803481034641</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:5">
+      <c r="A2405" s="2">
+        <v>43791</v>
+      </c>
+      <c r="B2405">
+        <v>0.002409010150176615</v>
+      </c>
+      <c r="C2405">
+        <v>0.007460631752226794</v>
+      </c>
+      <c r="D2405">
+        <v>0.01187638003459851</v>
+      </c>
+      <c r="E2405">
+        <v>0.6177102015122234</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:5">
+      <c r="A2406" s="2">
+        <v>43794</v>
+      </c>
+      <c r="B2406">
+        <v>0.003351221410544299</v>
+      </c>
+      <c r="C2406">
+        <v>0.00053520863601971</v>
+      </c>
+      <c r="D2406">
+        <v>0.01175395917979365</v>
+      </c>
+      <c r="E2406">
+        <v>0.8314005208723372</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:5">
+      <c r="A2407" s="2">
+        <v>43795</v>
+      </c>
+      <c r="B2407">
+        <v>0.002320133925643637</v>
+      </c>
+      <c r="C2407">
+        <v>0.006878820476833523</v>
+      </c>
+      <c r="D2407">
+        <v>0.01188009196742331</v>
+      </c>
+      <c r="E2407">
+        <v>0.5899914056500839</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:5">
+      <c r="A2408" s="2">
+        <v>43796</v>
+      </c>
+      <c r="B2408">
+        <v>0.002272898773271072</v>
+      </c>
+      <c r="C2408">
+        <v>0.005062997662271646</v>
+      </c>
+      <c r="D2408">
+        <v>0.01180473511042266</v>
+      </c>
+      <c r="E2408">
+        <v>0.5987504620880841</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:5">
+      <c r="A2409" s="2">
+        <v>43797</v>
+      </c>
+      <c r="B2409">
+        <v>0.002559375116530786</v>
+      </c>
+      <c r="C2409">
+        <v>0.005749607303186019</v>
+      </c>
+      <c r="D2409">
+        <v>0.01173043207903782</v>
+      </c>
+      <c r="E2409">
+        <v>0.6441076465059993</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:5">
+      <c r="A2410" s="2">
+        <v>43798</v>
+      </c>
+      <c r="B2410">
+        <v>0.002182733834906012</v>
+      </c>
+      <c r="C2410">
+        <v>0.004651056154005257</v>
+      </c>
+      <c r="D2410">
+        <v>0.01168734896865453</v>
+      </c>
+      <c r="E2410">
+        <v>0.5753207690466217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2410"/>
+  <dimension ref="A1:E2483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41170,6 +41170,1247 @@
         <v>0.5753207690466217</v>
       </c>
     </row>
+    <row r="2411" spans="1:5">
+      <c r="A2411" s="2">
+        <v>43801</v>
+      </c>
+      <c r="B2411">
+        <v>0.00226298135290447</v>
+      </c>
+      <c r="C2411">
+        <v>0.004869512991236566</v>
+      </c>
+      <c r="D2411">
+        <v>0.01162361248581392</v>
+      </c>
+      <c r="E2411">
+        <v>0.5771528043520783</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:5">
+      <c r="A2412" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B2412">
+        <v>0.002315085834996846</v>
+      </c>
+      <c r="C2412">
+        <v>0.005105828557854887</v>
+      </c>
+      <c r="D2412">
+        <v>0.01125645307047723</v>
+      </c>
+      <c r="E2412">
+        <v>0.5991359119029116</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:5">
+      <c r="A2413" s="2">
+        <v>43803</v>
+      </c>
+      <c r="B2413">
+        <v>0.001961424664700302</v>
+      </c>
+      <c r="C2413">
+        <v>0.003864290306119547</v>
+      </c>
+      <c r="D2413">
+        <v>0.01127678742863285</v>
+      </c>
+      <c r="E2413">
+        <v>0.5034815749767805</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:5">
+      <c r="A2414" s="2">
+        <v>43804</v>
+      </c>
+      <c r="B2414">
+        <v>0.002075775414374643</v>
+      </c>
+      <c r="C2414">
+        <v>0.00110093604351639</v>
+      </c>
+      <c r="D2414">
+        <v>0.01135789730354713</v>
+      </c>
+      <c r="E2414">
+        <v>0.5497384609346516</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:5">
+      <c r="A2415" s="2">
+        <v>43805</v>
+      </c>
+      <c r="B2415">
+        <v>0.001601829969928331</v>
+      </c>
+      <c r="C2415">
+        <v>0.004137225040624164</v>
+      </c>
+      <c r="D2415">
+        <v>0.01107305292823581</v>
+      </c>
+      <c r="E2415">
+        <v>0.4188859352591105</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:5">
+      <c r="A2416" s="2">
+        <v>43808</v>
+      </c>
+      <c r="B2416">
+        <v>0.001625431714008128</v>
+      </c>
+      <c r="C2416">
+        <v>0.003235575889010752</v>
+      </c>
+      <c r="D2416">
+        <v>0.01121922382487233</v>
+      </c>
+      <c r="E2416">
+        <v>0.4278923962459008</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:5">
+      <c r="A2417" s="2">
+        <v>43809</v>
+      </c>
+      <c r="B2417">
+        <v>0.001490647458554447</v>
+      </c>
+      <c r="C2417">
+        <v>0.004652444190272316</v>
+      </c>
+      <c r="D2417">
+        <v>0.01120036277364706</v>
+      </c>
+      <c r="E2417">
+        <v>0.3959491607886801</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:5">
+      <c r="A2418" s="2">
+        <v>43810</v>
+      </c>
+      <c r="B2418">
+        <v>0.001921658189147814</v>
+      </c>
+      <c r="C2418">
+        <v>0.00540241736667587</v>
+      </c>
+      <c r="D2418">
+        <v>0.01127989997252498</v>
+      </c>
+      <c r="E2418">
+        <v>0.5089453542963578</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:5">
+      <c r="A2419" s="2">
+        <v>43811</v>
+      </c>
+      <c r="B2419">
+        <v>0.002046460519733064</v>
+      </c>
+      <c r="C2419">
+        <v>0.004340930861017936</v>
+      </c>
+      <c r="D2419">
+        <v>0.01125600213555249</v>
+      </c>
+      <c r="E2419">
+        <v>0.5535313224495984</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:5">
+      <c r="A2420" s="2">
+        <v>43812</v>
+      </c>
+      <c r="B2420">
+        <v>0.002081000627707353</v>
+      </c>
+      <c r="C2420">
+        <v>0.00509784980056504</v>
+      </c>
+      <c r="D2420">
+        <v>0.01129535259555801</v>
+      </c>
+      <c r="E2420">
+        <v>0.5768413131107042</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:5">
+      <c r="A2421" s="2">
+        <v>43815</v>
+      </c>
+      <c r="B2421">
+        <v>0.002151750635718854</v>
+      </c>
+      <c r="C2421">
+        <v>0.002005975494373841</v>
+      </c>
+      <c r="D2421">
+        <v>0.01109573297618112</v>
+      </c>
+      <c r="E2421">
+        <v>0.5810521178840693</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:5">
+      <c r="A2422" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B2422">
+        <v>0.001485104945321388</v>
+      </c>
+      <c r="C2422">
+        <v>0.008068693834207526</v>
+      </c>
+      <c r="D2422">
+        <v>0.01120937317206765</v>
+      </c>
+      <c r="E2422">
+        <v>0.4059314243801453</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:5">
+      <c r="A2423" s="2">
+        <v>43817</v>
+      </c>
+      <c r="B2423">
+        <v>0.001062008370088151</v>
+      </c>
+      <c r="C2423">
+        <v>0.005447237812038897</v>
+      </c>
+      <c r="D2423">
+        <v>0.01111613044312836</v>
+      </c>
+      <c r="E2423">
+        <v>0.2874642591126501</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:5">
+      <c r="A2424" s="2">
+        <v>43818</v>
+      </c>
+      <c r="B2424">
+        <v>0.001435516337412714</v>
+      </c>
+      <c r="C2424">
+        <v>0.0065423134091221</v>
+      </c>
+      <c r="D2424">
+        <v>0.0110419524456503</v>
+      </c>
+      <c r="E2424">
+        <v>0.3926145275558235</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:5">
+      <c r="A2425" s="2">
+        <v>43819</v>
+      </c>
+      <c r="B2425">
+        <v>0.002133224402225929</v>
+      </c>
+      <c r="C2425">
+        <v>0.006320647336980753</v>
+      </c>
+      <c r="D2425">
+        <v>0.01106026700021979</v>
+      </c>
+      <c r="E2425">
+        <v>0.5712178343592554</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:5">
+      <c r="A2426" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B2426">
+        <v>0.004034183827011572</v>
+      </c>
+      <c r="C2426">
+        <v>0.0137195634173682</v>
+      </c>
+      <c r="D2426">
+        <v>0.01108784304640261</v>
+      </c>
+      <c r="E2426">
+        <v>0.9971164627579044</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:5">
+      <c r="A2427" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B2427">
+        <v>0.002962657307165224</v>
+      </c>
+      <c r="C2427">
+        <v>0.008462214512359938</v>
+      </c>
+      <c r="D2427">
+        <v>0.01107920788920731</v>
+      </c>
+      <c r="E2427">
+        <v>0.820030455872123</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:5">
+      <c r="A2428" s="2">
+        <v>43824</v>
+      </c>
+      <c r="B2428">
+        <v>0.001508764325833441</v>
+      </c>
+      <c r="C2428">
+        <v>0.003771058165764953</v>
+      </c>
+      <c r="D2428">
+        <v>0.01115121095649716</v>
+      </c>
+      <c r="E2428">
+        <v>0.4105916032258336</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:5">
+      <c r="A2429" s="2">
+        <v>43825</v>
+      </c>
+      <c r="B2429">
+        <v>0.001471584496565662</v>
+      </c>
+      <c r="C2429">
+        <v>0.005961345004574137</v>
+      </c>
+      <c r="D2429">
+        <v>0.0112084113287423</v>
+      </c>
+      <c r="E2429">
+        <v>0.4133888692874276</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:5">
+      <c r="A2430" s="2">
+        <v>43826</v>
+      </c>
+      <c r="B2430">
+        <v>0.001562588814422959</v>
+      </c>
+      <c r="C2430">
+        <v>0.005108542392815114</v>
+      </c>
+      <c r="D2430">
+        <v>0.01099046101537803</v>
+      </c>
+      <c r="E2430">
+        <v>0.4362450700114736</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:5">
+      <c r="A2431" s="2">
+        <v>43829</v>
+      </c>
+      <c r="B2431">
+        <v>0.001635763724646337</v>
+      </c>
+      <c r="C2431">
+        <v>0.00179206259732476</v>
+      </c>
+      <c r="D2431">
+        <v>0.01097518713435417</v>
+      </c>
+      <c r="E2431">
+        <v>0.4471523370988941</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:5">
+      <c r="A2432" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B2432">
+        <v>0.001364479276648628</v>
+      </c>
+      <c r="C2432">
+        <v>0.001458120914879882</v>
+      </c>
+      <c r="D2432">
+        <v>0.01095644075024913</v>
+      </c>
+      <c r="E2432">
+        <v>0.370916783335999</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:5">
+      <c r="A2433" s="2">
+        <v>43832</v>
+      </c>
+      <c r="B2433">
+        <v>0.001897837452243691</v>
+      </c>
+      <c r="C2433">
+        <v>0.007649761392752028</v>
+      </c>
+      <c r="D2433">
+        <v>0.0109286450247478</v>
+      </c>
+      <c r="E2433">
+        <v>0.5131287455983418</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:5">
+      <c r="A2434" s="2">
+        <v>43833</v>
+      </c>
+      <c r="B2434">
+        <v>0.001033210950379853</v>
+      </c>
+      <c r="C2434">
+        <v>0.003284348775308605</v>
+      </c>
+      <c r="D2434">
+        <v>0.01108975557200428</v>
+      </c>
+      <c r="E2434">
+        <v>0.2943391965480685</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:5">
+      <c r="A2435" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B2435">
+        <v>0.0009630830675030919</v>
+      </c>
+      <c r="C2435">
+        <v>0.006441388924061184</v>
+      </c>
+      <c r="D2435">
+        <v>0.0112185970189433</v>
+      </c>
+      <c r="E2435">
+        <v>0.2788009925027951</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:5">
+      <c r="A2436" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B2436">
+        <v>0.001365290009449196</v>
+      </c>
+      <c r="C2436">
+        <v>0.004090867855374039</v>
+      </c>
+      <c r="D2436">
+        <v>0.01110143008370141</v>
+      </c>
+      <c r="E2436">
+        <v>0.3903556509959941</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:5">
+      <c r="A2437" s="2">
+        <v>43838</v>
+      </c>
+      <c r="B2437">
+        <v>0.002198559662099977</v>
+      </c>
+      <c r="C2437">
+        <v>0.004427815942675731</v>
+      </c>
+      <c r="D2437">
+        <v>0.01130595333628936</v>
+      </c>
+      <c r="E2437">
+        <v>0.6039323920713048</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:5">
+      <c r="A2438" s="2">
+        <v>43839</v>
+      </c>
+      <c r="B2438">
+        <v>0.001878335988196431</v>
+      </c>
+      <c r="C2438">
+        <v>0.008066577059468685</v>
+      </c>
+      <c r="D2438">
+        <v>0.01140108087743266</v>
+      </c>
+      <c r="E2438">
+        <v>0.541634219048288</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:5">
+      <c r="A2439" s="2">
+        <v>43840</v>
+      </c>
+      <c r="B2439">
+        <v>0.001427819462077691</v>
+      </c>
+      <c r="C2439">
+        <v>0.006190652210162567</v>
+      </c>
+      <c r="D2439">
+        <v>0.01170148005515759</v>
+      </c>
+      <c r="E2439">
+        <v>0.3971737360419416</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:5">
+      <c r="A2440" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B2440">
+        <v>0.001124225198647264</v>
+      </c>
+      <c r="C2440">
+        <v>0.004774494258459594</v>
+      </c>
+      <c r="D2440">
+        <v>0.01182669719006868</v>
+      </c>
+      <c r="E2440">
+        <v>0.3424237231111156</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:5">
+      <c r="A2441" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B2441">
+        <v>0.001226753888531213</v>
+      </c>
+      <c r="C2441">
+        <v>0.001459165031451156</v>
+      </c>
+      <c r="D2441">
+        <v>0.01185084672163963</v>
+      </c>
+      <c r="E2441">
+        <v>0.3493164653447469</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:5">
+      <c r="A2442" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B2442">
+        <v>0.001782180149639529</v>
+      </c>
+      <c r="C2442">
+        <v>0.001028396995980352</v>
+      </c>
+      <c r="D2442">
+        <v>0.01179939509000186</v>
+      </c>
+      <c r="E2442">
+        <v>0.509845510023041</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:5">
+      <c r="A2443" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B2443">
+        <v>0.001722451989337328</v>
+      </c>
+      <c r="C2443">
+        <v>0.004579936446844057</v>
+      </c>
+      <c r="D2443">
+        <v>0.01160071544495937</v>
+      </c>
+      <c r="E2443">
+        <v>0.4931492460070342</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:5">
+      <c r="A2444" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B2444">
+        <v>0.001558563038334137</v>
+      </c>
+      <c r="C2444">
+        <v>0.003896848232171049</v>
+      </c>
+      <c r="D2444">
+        <v>0.01167293268221395</v>
+      </c>
+      <c r="E2444">
+        <v>0.4380527422068348</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:5">
+      <c r="A2445" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B2445">
+        <v>0.001584277652149772</v>
+      </c>
+      <c r="C2445">
+        <v>0.003684456504222306</v>
+      </c>
+      <c r="D2445">
+        <v>0.01184302297253031</v>
+      </c>
+      <c r="E2445">
+        <v>0.4875956294584374</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:5">
+      <c r="A2446" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B2446">
+        <v>0.00274183820164577</v>
+      </c>
+      <c r="C2446">
+        <v>0.004876470741684948</v>
+      </c>
+      <c r="D2446">
+        <v>0.01211300710245268</v>
+      </c>
+      <c r="E2446">
+        <v>0.7507133814474189</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:5">
+      <c r="A2447" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B2447">
+        <v>0.001426663575828543</v>
+      </c>
+      <c r="C2447">
+        <v>0.004295122668824412</v>
+      </c>
+      <c r="D2447">
+        <v>0.01194185903626759</v>
+      </c>
+      <c r="E2447">
+        <v>0.4231289602904334</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:5">
+      <c r="A2448" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B2448">
+        <v>0.004532987826653925</v>
+      </c>
+      <c r="C2448">
+        <v>0.004823108448937713</v>
+      </c>
+      <c r="D2448">
+        <v>0.01225909785982171</v>
+      </c>
+      <c r="E2448">
+        <v>1.168247800936632</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:5">
+      <c r="A2449" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B2449">
+        <v>0.05452078008744832</v>
+      </c>
+      <c r="C2449">
+        <v>0.2092949835402083</v>
+      </c>
+      <c r="D2449">
+        <v>0.01447144336575244</v>
+      </c>
+      <c r="E2449">
+        <v>12.93350549602423</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:5">
+      <c r="A2450" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B2450">
+        <v>0.003488875664833792</v>
+      </c>
+      <c r="C2450">
+        <v>0.01215324964731017</v>
+      </c>
+      <c r="D2450">
+        <v>0.01861240674956717</v>
+      </c>
+      <c r="E2450">
+        <v>0.8509615568623319</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:5">
+      <c r="A2451" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B2451">
+        <v>0.002621525095973738</v>
+      </c>
+      <c r="C2451">
+        <v>0.01837593278335285</v>
+      </c>
+      <c r="D2451">
+        <v>0.01740495760924333</v>
+      </c>
+      <c r="E2451">
+        <v>0.6469119151979361</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:5">
+      <c r="A2452" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B2452">
+        <v>0.002092216737227868</v>
+      </c>
+      <c r="C2452">
+        <v>0.01125227705857655</v>
+      </c>
+      <c r="D2452">
+        <v>0.01855291359281686</v>
+      </c>
+      <c r="E2452">
+        <v>0.538860420433166</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:5">
+      <c r="A2453" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B2453">
+        <v>0.001576915994510587</v>
+      </c>
+      <c r="C2453">
+        <v>0.006958487655454195</v>
+      </c>
+      <c r="D2453">
+        <v>0.01907546066635883</v>
+      </c>
+      <c r="E2453">
+        <v>0.4273435317975068</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:5">
+      <c r="A2454" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B2454">
+        <v>0.002362502024081441</v>
+      </c>
+      <c r="C2454">
+        <v>0.003019428510821387</v>
+      </c>
+      <c r="D2454">
+        <v>0.0194883626032024</v>
+      </c>
+      <c r="E2454">
+        <v>0.6513771363831178</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:5">
+      <c r="A2455" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B2455">
+        <v>0.001659960180489754</v>
+      </c>
+      <c r="C2455">
+        <v>0.001368380542106939</v>
+      </c>
+      <c r="D2455">
+        <v>0.01942407097405603</v>
+      </c>
+      <c r="E2455">
+        <v>0.4373978535142749</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:5">
+      <c r="A2456" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B2456">
+        <v>0.0015590869571834</v>
+      </c>
+      <c r="C2456">
+        <v>0.0111475805272518</v>
+      </c>
+      <c r="D2456">
+        <v>0.01915916453360808</v>
+      </c>
+      <c r="E2456">
+        <v>0.4378391336286422</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:5">
+      <c r="A2457" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B2457">
+        <v>0.002180983191840333</v>
+      </c>
+      <c r="C2457">
+        <v>0.009151829626767697</v>
+      </c>
+      <c r="D2457">
+        <v>0.01904394272257174</v>
+      </c>
+      <c r="E2457">
+        <v>0.5882615497516868</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:5">
+      <c r="A2458" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B2458">
+        <v>0.001239951171288255</v>
+      </c>
+      <c r="C2458">
+        <v>0.004759727048458947</v>
+      </c>
+      <c r="D2458">
+        <v>0.01912295682329907</v>
+      </c>
+      <c r="E2458">
+        <v>0.3418784269137369</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:5">
+      <c r="A2459" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B2459">
+        <v>0.003307036406522669</v>
+      </c>
+      <c r="C2459">
+        <v>0.003720866213359856</v>
+      </c>
+      <c r="D2459">
+        <v>0.01938054707504468</v>
+      </c>
+      <c r="E2459">
+        <v>0.9013890376552989</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:5">
+      <c r="A2460" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B2460">
+        <v>0.001474420619308484</v>
+      </c>
+      <c r="C2460">
+        <v>0.01242036576832924</v>
+      </c>
+      <c r="D2460">
+        <v>0.0203712540415486</v>
+      </c>
+      <c r="E2460">
+        <v>0.430846904313947</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:5">
+      <c r="A2461" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B2461">
+        <v>0.001414962639985977</v>
+      </c>
+      <c r="C2461">
+        <v>0.005279134147407948</v>
+      </c>
+      <c r="D2461">
+        <v>0.02028555451863493</v>
+      </c>
+      <c r="E2461">
+        <v>0.397645257118098</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:5">
+      <c r="A2462" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B2462">
+        <v>0.001442048475094085</v>
+      </c>
+      <c r="C2462">
+        <v>0.009329809111164336</v>
+      </c>
+      <c r="D2462">
+        <v>0.02011651337764416</v>
+      </c>
+      <c r="E2462">
+        <v>0.4418611791936753</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:5">
+      <c r="A2463" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B2463">
+        <v>0.0008469194515347719</v>
+      </c>
+      <c r="C2463">
+        <v>0.002647578788097193</v>
+      </c>
+      <c r="D2463">
+        <v>0.0203217869430352</v>
+      </c>
+      <c r="E2463">
+        <v>0.2557292201444649</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:5">
+      <c r="A2464" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B2464">
+        <v>0.00118959462639023</v>
+      </c>
+      <c r="C2464">
+        <v>0.002135047153275848</v>
+      </c>
+      <c r="D2464">
+        <v>0.02063322194287184</v>
+      </c>
+      <c r="E2464">
+        <v>0.361042607833387</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:5">
+      <c r="A2465" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B2465">
+        <v>0.001457114896289851</v>
+      </c>
+      <c r="C2465">
+        <v>0.01437930177211973</v>
+      </c>
+      <c r="D2465">
+        <v>0.02085005906894377</v>
+      </c>
+      <c r="E2465">
+        <v>0.4317009013217769</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:5">
+      <c r="A2466" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B2466">
+        <v>0.001489772081390273</v>
+      </c>
+      <c r="C2466">
+        <v>0.01313751278927896</v>
+      </c>
+      <c r="D2466">
+        <v>0.02036258557361496</v>
+      </c>
+      <c r="E2466">
+        <v>0.4553660310583983</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:5">
+      <c r="A2467" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B2467">
+        <v>0.001179345516222429</v>
+      </c>
+      <c r="C2467">
+        <v>0.009270196840338963</v>
+      </c>
+      <c r="D2467">
+        <v>0.0205454270925344</v>
+      </c>
+      <c r="E2467">
+        <v>0.3501905289045458</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:5">
+      <c r="A2468" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B2468">
+        <v>0.004746929880112166</v>
+      </c>
+      <c r="C2468">
+        <v>0.04709862192107622</v>
+      </c>
+      <c r="D2468">
+        <v>0.0205908710956221</v>
+      </c>
+      <c r="E2468">
+        <v>1.233723186631658</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:5">
+      <c r="A2469" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B2469">
+        <v>0.003909223167256289</v>
+      </c>
+      <c r="C2469">
+        <v>0.02133728644327664</v>
+      </c>
+      <c r="D2469">
+        <v>0.01807309561326982</v>
+      </c>
+      <c r="E2469">
+        <v>1.10873718519034</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:5">
+      <c r="A2470" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B2470">
+        <v>0.0009028878700188536</v>
+      </c>
+      <c r="C2470">
+        <v>0.02349518026621331</v>
+      </c>
+      <c r="D2470">
+        <v>0.01867771973424239</v>
+      </c>
+      <c r="E2470">
+        <v>0.2632662999102419</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:5">
+      <c r="A2471" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B2471">
+        <v>0.001241539726579144</v>
+      </c>
+      <c r="C2471">
+        <v>0.009794270191967058</v>
+      </c>
+      <c r="D2471">
+        <v>0.01888330202426357</v>
+      </c>
+      <c r="E2471">
+        <v>0.3987247285979357</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:5">
+      <c r="A2472" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B2472">
+        <v>0.001246613320219495</v>
+      </c>
+      <c r="C2472">
+        <v>0.01608096452710112</v>
+      </c>
+      <c r="D2472">
+        <v>0.01915291844691653</v>
+      </c>
+      <c r="E2472">
+        <v>0.396783673797275</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:5">
+      <c r="A2473" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B2473">
+        <v>0.001184281647206789</v>
+      </c>
+      <c r="C2473">
+        <v>0.007246965825896342</v>
+      </c>
+      <c r="D2473">
+        <v>0.01921115898369748</v>
+      </c>
+      <c r="E2473">
+        <v>0.3617882517686065</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:5">
+      <c r="A2474" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B2474">
+        <v>0.003098134806444031</v>
+      </c>
+      <c r="C2474">
+        <v>0.01792690038099647</v>
+      </c>
+      <c r="D2474">
+        <v>0.01927485975767122</v>
+      </c>
+      <c r="E2474">
+        <v>0.9191123296824243</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:5">
+      <c r="A2475" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B2475">
+        <v>0.001719252640152972</v>
+      </c>
+      <c r="C2475">
+        <v>0.005795820274153746</v>
+      </c>
+      <c r="D2475">
+        <v>0.01877421210391076</v>
+      </c>
+      <c r="E2475">
+        <v>0.548009370612782</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:5">
+      <c r="A2476" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B2476">
+        <v>0.001407585972618526</v>
+      </c>
+      <c r="C2476">
+        <v>0.006304095390008085</v>
+      </c>
+      <c r="D2476">
+        <v>0.01871970872396213</v>
+      </c>
+      <c r="E2476">
+        <v>0.4125013463224987</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5">
+      <c r="A2477" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B2477">
+        <v>0.002637665777623849</v>
+      </c>
+      <c r="C2477">
+        <v>0.03571925270099992</v>
+      </c>
+      <c r="D2477">
+        <v>0.01863632767548563</v>
+      </c>
+      <c r="E2477">
+        <v>0.7582188205638367</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5">
+      <c r="A2478" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B2478">
+        <v>0.001933305040983179</v>
+      </c>
+      <c r="C2478">
+        <v>0.03529062904876035</v>
+      </c>
+      <c r="D2478">
+        <v>0.01893271438518865</v>
+      </c>
+      <c r="E2478">
+        <v>0.5682233526341582</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:5">
+      <c r="A2479" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B2479">
+        <v>0.003928668818680909</v>
+      </c>
+      <c r="C2479">
+        <v>0.03044120378107836</v>
+      </c>
+      <c r="D2479">
+        <v>0.01948368042581615</v>
+      </c>
+      <c r="E2479">
+        <v>1.030647030814657</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5">
+      <c r="A2480" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B2480">
+        <v>0.001658126882862025</v>
+      </c>
+      <c r="C2480">
+        <v>0.02019434086159476</v>
+      </c>
+      <c r="D2480">
+        <v>0.01977896657099968</v>
+      </c>
+      <c r="E2480">
+        <v>0.4527529290623621</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5">
+      <c r="A2481" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B2481">
+        <v>0.002457402162218993</v>
+      </c>
+      <c r="C2481">
+        <v>0.02252692712118895</v>
+      </c>
+      <c r="D2481">
+        <v>0.02006124359978959</v>
+      </c>
+      <c r="E2481">
+        <v>0.6473461706989961</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5">
+      <c r="A2482" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B2482">
+        <v>0.001718813036785349</v>
+      </c>
+      <c r="C2482">
+        <v>0.01089327964954323</v>
+      </c>
+      <c r="D2482">
+        <v>0.01980135579366834</v>
+      </c>
+      <c r="E2482">
+        <v>0.4881239814803565</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5">
+      <c r="A2483" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B2483">
+        <v>0.002137890362950441</v>
+      </c>
+      <c r="C2483">
+        <v>0.000746429003259751</v>
+      </c>
+      <c r="D2483">
+        <v>0.01981266700220155</v>
+      </c>
+      <c r="E2483">
+        <v>0.6002917643098918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2483"/>
+  <dimension ref="A1:E2514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42411,6 +42411,533 @@
         <v>0.6002917643098918</v>
       </c>
     </row>
+    <row r="2484" spans="1:5">
+      <c r="A2484" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B2484">
+        <v>0.005693773134022353</v>
+      </c>
+      <c r="C2484">
+        <v>0.01773060204650105</v>
+      </c>
+      <c r="D2484">
+        <v>0.01952676483735304</v>
+      </c>
+      <c r="E2484">
+        <v>1.532480671729955</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:5">
+      <c r="A2485" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B2485">
+        <v>0.003009072316883326</v>
+      </c>
+      <c r="C2485">
+        <v>0.0145950291189726</v>
+      </c>
+      <c r="D2485">
+        <v>0.01924238457890501</v>
+      </c>
+      <c r="E2485">
+        <v>0.8403290955791541</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5">
+      <c r="A2486" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B2486">
+        <v>0.002524618945713092</v>
+      </c>
+      <c r="C2486">
+        <v>0.0277396765496</v>
+      </c>
+      <c r="D2486">
+        <v>0.0194732516397599</v>
+      </c>
+      <c r="E2486">
+        <v>0.7326956640748283</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5">
+      <c r="A2487" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B2487">
+        <v>0.002618155206991089</v>
+      </c>
+      <c r="C2487">
+        <v>0.003215568646111831</v>
+      </c>
+      <c r="D2487">
+        <v>0.01954412511866033</v>
+      </c>
+      <c r="E2487">
+        <v>0.7055078117865249</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5">
+      <c r="A2488" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B2488">
+        <v>0.001714022841973301</v>
+      </c>
+      <c r="C2488">
+        <v>0.00993586344955829</v>
+      </c>
+      <c r="D2488">
+        <v>0.01956237914211047</v>
+      </c>
+      <c r="E2488">
+        <v>0.4714566665183512</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5">
+      <c r="A2489" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B2489">
+        <v>0.003984771596980233</v>
+      </c>
+      <c r="C2489">
+        <v>0.03864820411178183</v>
+      </c>
+      <c r="D2489">
+        <v>0.01964175103240753</v>
+      </c>
+      <c r="E2489">
+        <v>1.064222251350274</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5">
+      <c r="A2490" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B2490">
+        <v>0.002113984087383881</v>
+      </c>
+      <c r="C2490">
+        <v>0.01012470616414189</v>
+      </c>
+      <c r="D2490">
+        <v>0.01960744801577073</v>
+      </c>
+      <c r="E2490">
+        <v>0.5637697990258158</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5">
+      <c r="A2491" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B2491">
+        <v>0.001928966133207449</v>
+      </c>
+      <c r="C2491">
+        <v>0.00871207567723112</v>
+      </c>
+      <c r="D2491">
+        <v>0.01957856768930952</v>
+      </c>
+      <c r="E2491">
+        <v>0.5052073593246046</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5">
+      <c r="A2492" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B2492">
+        <v>0.003312043446478156</v>
+      </c>
+      <c r="C2492">
+        <v>0.01164580082650093</v>
+      </c>
+      <c r="D2492">
+        <v>0.01946679336032602</v>
+      </c>
+      <c r="E2492">
+        <v>0.9193208105775929</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5">
+      <c r="A2493" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B2493">
+        <v>0.002429943241259012</v>
+      </c>
+      <c r="C2493">
+        <v>0.006182883928410264</v>
+      </c>
+      <c r="D2493">
+        <v>0.01936886145656202</v>
+      </c>
+      <c r="E2493">
+        <v>0.6483135893363147</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5">
+      <c r="A2494" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B2494">
+        <v>0.00345267956412407</v>
+      </c>
+      <c r="C2494">
+        <v>0.0103533050224394</v>
+      </c>
+      <c r="D2494">
+        <v>0.01932747048911353</v>
+      </c>
+      <c r="E2494">
+        <v>0.9858672877305457</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5">
+      <c r="A2495" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B2495">
+        <v>0.001356136402497666</v>
+      </c>
+      <c r="C2495">
+        <v>0.005246287039087148</v>
+      </c>
+      <c r="D2495">
+        <v>0.01942410946227137</v>
+      </c>
+      <c r="E2495">
+        <v>0.3897817904261464</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5">
+      <c r="A2496" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B2496">
+        <v>0.001187578156131595</v>
+      </c>
+      <c r="C2496">
+        <v>0.001857609925143678</v>
+      </c>
+      <c r="D2496">
+        <v>0.01937109946057161</v>
+      </c>
+      <c r="E2496">
+        <v>0.3298665483897175</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5">
+      <c r="A2497" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B2497">
+        <v>0.003396644682608075</v>
+      </c>
+      <c r="C2497">
+        <v>0.001677177274662303</v>
+      </c>
+      <c r="D2497">
+        <v>0.01952369773984685</v>
+      </c>
+      <c r="E2497">
+        <v>0.9184737214488847</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5">
+      <c r="A2498" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B2498">
+        <v>0.002910029241240252</v>
+      </c>
+      <c r="C2498">
+        <v>0.01298105184486421</v>
+      </c>
+      <c r="D2498">
+        <v>0.0199057542844147</v>
+      </c>
+      <c r="E2498">
+        <v>0.801120523565972</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5">
+      <c r="A2499" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B2499">
+        <v>0.00258326811132246</v>
+      </c>
+      <c r="C2499">
+        <v>0.006709919938034572</v>
+      </c>
+      <c r="D2499">
+        <v>0.01975442203075692</v>
+      </c>
+      <c r="E2499">
+        <v>0.7904190929716675</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5">
+      <c r="A2500" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B2500">
+        <v>0.002110985378427285</v>
+      </c>
+      <c r="C2500">
+        <v>0.006363179615705649</v>
+      </c>
+      <c r="D2500">
+        <v>0.0197467098826673</v>
+      </c>
+      <c r="E2500">
+        <v>0.5960728725720998</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5">
+      <c r="A2501" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B2501">
+        <v>0.001433796187669402</v>
+      </c>
+      <c r="C2501">
+        <v>0.001730673121613257</v>
+      </c>
+      <c r="D2501">
+        <v>0.01979264584160291</v>
+      </c>
+      <c r="E2501">
+        <v>0.4211972544025585</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5">
+      <c r="A2502" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B2502">
+        <v>0.001395671072758658</v>
+      </c>
+      <c r="C2502">
+        <v>0.002958680475304372</v>
+      </c>
+      <c r="D2502">
+        <v>0.01983480587028666</v>
+      </c>
+      <c r="E2502">
+        <v>0.3787146868477905</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5">
+      <c r="A2503" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B2503">
+        <v>0.001613056786997158</v>
+      </c>
+      <c r="C2503">
+        <v>0.005364041721900078</v>
+      </c>
+      <c r="D2503">
+        <v>0.01987838221658869</v>
+      </c>
+      <c r="E2503">
+        <v>0.4552928228298885</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5">
+      <c r="A2504" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B2504">
+        <v>0.002039821425526224</v>
+      </c>
+      <c r="C2504">
+        <v>0.002752129527707863</v>
+      </c>
+      <c r="D2504">
+        <v>0.01996076127691637</v>
+      </c>
+      <c r="E2504">
+        <v>0.5718707159959446</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5">
+      <c r="A2505" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B2505">
+        <v>0.001471366884486424</v>
+      </c>
+      <c r="C2505">
+        <v>0.008844127129007909</v>
+      </c>
+      <c r="D2505">
+        <v>0.01988716644262713</v>
+      </c>
+      <c r="E2505">
+        <v>0.4171403899191221</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5">
+      <c r="A2506" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B2506">
+        <v>0.001819409062397699</v>
+      </c>
+      <c r="C2506">
+        <v>0.005439293468137658</v>
+      </c>
+      <c r="D2506">
+        <v>0.02001685339292246</v>
+      </c>
+      <c r="E2506">
+        <v>0.5333865074836742</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5">
+      <c r="A2507" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B2507">
+        <v>0.002860770376891888</v>
+      </c>
+      <c r="C2507">
+        <v>0.006250849192138247</v>
+      </c>
+      <c r="D2507">
+        <v>0.02004862406764448</v>
+      </c>
+      <c r="E2507">
+        <v>0.8013666063403138</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5">
+      <c r="A2508" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B2508">
+        <v>0.002399327045477092</v>
+      </c>
+      <c r="C2508">
+        <v>2.301948738175956e-05</v>
+      </c>
+      <c r="D2508">
+        <v>0.01997064277583195</v>
+      </c>
+      <c r="E2508">
+        <v>0.6715941867140285</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5">
+      <c r="A2509" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B2509">
+        <v>0.003522759580938996</v>
+      </c>
+      <c r="C2509">
+        <v>0.01296961437397868</v>
+      </c>
+      <c r="D2509">
+        <v>0.01862208595977535</v>
+      </c>
+      <c r="E2509">
+        <v>0.918277191302287</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5">
+      <c r="A2510" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B2510">
+        <v>0.002390769175798181</v>
+      </c>
+      <c r="C2510">
+        <v>0.009993753302426224</v>
+      </c>
+      <c r="D2510">
+        <v>0.01774761200387174</v>
+      </c>
+      <c r="E2510">
+        <v>0.634637918693018</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5">
+      <c r="A2511" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B2511">
+        <v>0.003171760686666138</v>
+      </c>
+      <c r="C2511">
+        <v>0</v>
+      </c>
+      <c r="D2511">
+        <v>0.01742239849225821</v>
+      </c>
+      <c r="E2511">
+        <v>0.940982098955468</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5">
+      <c r="A2512" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B2512">
+        <v>0.002183297029845095</v>
+      </c>
+      <c r="C2512">
+        <v>0.005190471578455765</v>
+      </c>
+      <c r="D2512">
+        <v>0.01742017114354787</v>
+      </c>
+      <c r="E2512">
+        <v>0.6182346088289399</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5">
+      <c r="A2513" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B2513">
+        <v>0.00165865707243707</v>
+      </c>
+      <c r="C2513">
+        <v>0.002127082136562467</v>
+      </c>
+      <c r="D2513">
+        <v>0.0175594010771166</v>
+      </c>
+      <c r="E2513">
+        <v>0.469222360092211</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5">
+      <c r="A2514" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B2514">
+        <v>0.001515708096756223</v>
+      </c>
+      <c r="C2514">
+        <v>0.007057659809109929</v>
+      </c>
+      <c r="D2514">
+        <v>0.0175106103524266</v>
+      </c>
+      <c r="E2514">
+        <v>0.4293021618773546</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2514"/>
+  <dimension ref="A1:E2557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42938,6 +42938,737 @@
         <v>0.4293021618773546</v>
       </c>
     </row>
+    <row r="2515" spans="1:5">
+      <c r="A2515" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B2515">
+        <v>0.001497676346001953</v>
+      </c>
+      <c r="C2515">
+        <v>0.006404165135961517</v>
+      </c>
+      <c r="D2515">
+        <v>0.01744510369489225</v>
+      </c>
+      <c r="E2515">
+        <v>0.4233447549230498</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5">
+      <c r="A2516" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B2516">
+        <v>0.001766006298842597</v>
+      </c>
+      <c r="C2516">
+        <v>0.0006124969458018377</v>
+      </c>
+      <c r="D2516">
+        <v>0.01739238450642135</v>
+      </c>
+      <c r="E2516">
+        <v>0.483463964208215</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5">
+      <c r="A2517" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B2517">
+        <v>0.001411749480621793</v>
+      </c>
+      <c r="C2517">
+        <v>0.007096426392179061</v>
+      </c>
+      <c r="D2517">
+        <v>0.0173000965103066</v>
+      </c>
+      <c r="E2517">
+        <v>0.4171469390145474</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5">
+      <c r="A2518" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B2518">
+        <v>0.00231412860576243</v>
+      </c>
+      <c r="C2518">
+        <v>0.005027151110432943</v>
+      </c>
+      <c r="D2518">
+        <v>0.01707957929783462</v>
+      </c>
+      <c r="E2518">
+        <v>0.6725410997045693</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5">
+      <c r="A2519" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B2519">
+        <v>0.001387508123288515</v>
+      </c>
+      <c r="C2519">
+        <v>0.006271955962300078</v>
+      </c>
+      <c r="D2519">
+        <v>0.01717384216104596</v>
+      </c>
+      <c r="E2519">
+        <v>0.4006490846787787</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5">
+      <c r="A2520" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B2520">
+        <v>0.00233368621665147</v>
+      </c>
+      <c r="C2520">
+        <v>0.001138399776394313</v>
+      </c>
+      <c r="D2520">
+        <v>0.01744483863525313</v>
+      </c>
+      <c r="E2520">
+        <v>0.6515334994121479</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5">
+      <c r="A2521" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B2521">
+        <v>0.001674277360647495</v>
+      </c>
+      <c r="C2521">
+        <v>0.006934227272364188</v>
+      </c>
+      <c r="D2521">
+        <v>0.01747150061821599</v>
+      </c>
+      <c r="E2521">
+        <v>0.4922116544129104</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5">
+      <c r="A2522" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B2522">
+        <v>0.002328444059753512</v>
+      </c>
+      <c r="C2522">
+        <v>0.002835428005626031</v>
+      </c>
+      <c r="D2522">
+        <v>0.01742787708768865</v>
+      </c>
+      <c r="E2522">
+        <v>0.6588018730796059</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5">
+      <c r="A2523" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B2523">
+        <v>0.002322405980315059</v>
+      </c>
+      <c r="C2523">
+        <v>0.002934380604231482</v>
+      </c>
+      <c r="D2523">
+        <v>0.01746456408123116</v>
+      </c>
+      <c r="E2523">
+        <v>0.6543559439436573</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5">
+      <c r="A2524" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B2524">
+        <v>0.003016798155642488</v>
+      </c>
+      <c r="C2524">
+        <v>0.009444519905267739</v>
+      </c>
+      <c r="D2524">
+        <v>0.01763759117234509</v>
+      </c>
+      <c r="E2524">
+        <v>0.8617942320146429</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5">
+      <c r="A2525" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B2525">
+        <v>0.002707878808351041</v>
+      </c>
+      <c r="C2525">
+        <v>0.001741470388553961</v>
+      </c>
+      <c r="D2525">
+        <v>0.0176423086552886</v>
+      </c>
+      <c r="E2525">
+        <v>0.7432506200369347</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5">
+      <c r="A2526" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B2526">
+        <v>0.002969953457549015</v>
+      </c>
+      <c r="C2526">
+        <v>0.003029146646622188</v>
+      </c>
+      <c r="D2526">
+        <v>0.01769950901314887</v>
+      </c>
+      <c r="E2526">
+        <v>0.8974598124802139</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5">
+      <c r="A2527" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B2527">
+        <v>0.002114350823413826</v>
+      </c>
+      <c r="C2527">
+        <v>0.00500064809145184</v>
+      </c>
+      <c r="D2527">
+        <v>0.01749651972652926</v>
+      </c>
+      <c r="E2527">
+        <v>0.6221339767953974</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5">
+      <c r="A2528" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B2528">
+        <v>0.001947280332161329</v>
+      </c>
+      <c r="C2528">
+        <v>0.00264393920187722</v>
+      </c>
+      <c r="D2528">
+        <v>0.01733392473985544</v>
+      </c>
+      <c r="E2528">
+        <v>0.5342163344681978</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5">
+      <c r="A2529" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B2529">
+        <v>0.001717614785424344</v>
+      </c>
+      <c r="C2529">
+        <v>0.008591228881416835</v>
+      </c>
+      <c r="D2529">
+        <v>0.01610873968317066</v>
+      </c>
+      <c r="E2529">
+        <v>0.509766838765591</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5">
+      <c r="A2530" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B2530">
+        <v>0.002917168736893115</v>
+      </c>
+      <c r="C2530">
+        <v>0.008192070258863456</v>
+      </c>
+      <c r="D2530">
+        <v>0.01615433686950808</v>
+      </c>
+      <c r="E2530">
+        <v>0.853678526672026</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5">
+      <c r="A2531" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B2531">
+        <v>0.001295643926268738</v>
+      </c>
+      <c r="C2531">
+        <v>0.003219426397294787</v>
+      </c>
+      <c r="D2531">
+        <v>0.01605143383773509</v>
+      </c>
+      <c r="E2531">
+        <v>0.3641010910357709</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5">
+      <c r="A2532" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B2532">
+        <v>0.001283898408507126</v>
+      </c>
+      <c r="C2532">
+        <v>0.006266818094800388</v>
+      </c>
+      <c r="D2532">
+        <v>0.01627763891146642</v>
+      </c>
+      <c r="E2532">
+        <v>0.3777238100045457</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5">
+      <c r="A2533" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B2533">
+        <v>0.001445739957868386</v>
+      </c>
+      <c r="C2533">
+        <v>0.004337336413035223</v>
+      </c>
+      <c r="D2533">
+        <v>0.01606782815678319</v>
+      </c>
+      <c r="E2533">
+        <v>0.4263371895265616</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5">
+      <c r="A2534" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B2534">
+        <v>0.001497630946279111</v>
+      </c>
+      <c r="C2534">
+        <v>0.005615775769346865</v>
+      </c>
+      <c r="D2534">
+        <v>0.01642914076719623</v>
+      </c>
+      <c r="E2534">
+        <v>0.4266670560673169</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5">
+      <c r="A2535" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B2535">
+        <v>0.001675439536607288</v>
+      </c>
+      <c r="C2535">
+        <v>0.005283691558690438</v>
+      </c>
+      <c r="D2535">
+        <v>0.01606730108037204</v>
+      </c>
+      <c r="E2535">
+        <v>0.478417970953699</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5">
+      <c r="A2536" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B2536">
+        <v>0.001312683881210244</v>
+      </c>
+      <c r="C2536">
+        <v>0.005813843666600324</v>
+      </c>
+      <c r="D2536">
+        <v>0.01595007868983866</v>
+      </c>
+      <c r="E2536">
+        <v>0.3982144825299886</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5">
+      <c r="A2537" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B2537">
+        <v>0.0018715615338736</v>
+      </c>
+      <c r="C2537">
+        <v>0.004070903562377614</v>
+      </c>
+      <c r="D2537">
+        <v>0.0157404905930461</v>
+      </c>
+      <c r="E2537">
+        <v>0.5611336770695805</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5">
+      <c r="A2538" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B2538">
+        <v>0.001627339752905676</v>
+      </c>
+      <c r="C2538">
+        <v>0.005849020766539322</v>
+      </c>
+      <c r="D2538">
+        <v>0.01568736115488505</v>
+      </c>
+      <c r="E2538">
+        <v>0.4771180372517231</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5">
+      <c r="A2539" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B2539">
+        <v>0.00146945364644017</v>
+      </c>
+      <c r="C2539">
+        <v>0.007551602507353036</v>
+      </c>
+      <c r="D2539">
+        <v>0.01579928516090297</v>
+      </c>
+      <c r="E2539">
+        <v>0.4352249425030036</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5">
+      <c r="A2540" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B2540">
+        <v>0.001904135393752325</v>
+      </c>
+      <c r="C2540">
+        <v>0.003267026345378751</v>
+      </c>
+      <c r="D2540">
+        <v>0.01562101701914985</v>
+      </c>
+      <c r="E2540">
+        <v>0.548137756424772</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:5">
+      <c r="A2541" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B2541">
+        <v>0.002116624752506561</v>
+      </c>
+      <c r="C2541">
+        <v>0.007189674749540884</v>
+      </c>
+      <c r="D2541">
+        <v>0.01572654257706869</v>
+      </c>
+      <c r="E2541">
+        <v>0.6618461295231701</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5">
+      <c r="A2542" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B2542">
+        <v>0.001266380912622626</v>
+      </c>
+      <c r="C2542">
+        <v>0.005057773207644767</v>
+      </c>
+      <c r="D2542">
+        <v>0.0156379494592237</v>
+      </c>
+      <c r="E2542">
+        <v>0.3939922378551118</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:5">
+      <c r="A2543" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B2543">
+        <v>0.001370047552072083</v>
+      </c>
+      <c r="C2543">
+        <v>0.006638111870005868</v>
+      </c>
+      <c r="D2543">
+        <v>0.01568022569340771</v>
+      </c>
+      <c r="E2543">
+        <v>0.4297354571030044</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5">
+      <c r="A2544" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B2544">
+        <v>0.001095856640403076</v>
+      </c>
+      <c r="C2544">
+        <v>0.004834916724856796</v>
+      </c>
+      <c r="D2544">
+        <v>0.01531649003627225</v>
+      </c>
+      <c r="E2544">
+        <v>0.3339108158145422</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5">
+      <c r="A2545" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B2545">
+        <v>0.001373580437508903</v>
+      </c>
+      <c r="C2545">
+        <v>0.003701055228757234</v>
+      </c>
+      <c r="D2545">
+        <v>0.01490179880884484</v>
+      </c>
+      <c r="E2545">
+        <v>0.4041593063426474</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5">
+      <c r="A2546" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B2546">
+        <v>0.001764221460556314</v>
+      </c>
+      <c r="C2546">
+        <v>0.002251220085462716</v>
+      </c>
+      <c r="D2546">
+        <v>0.01487934984026875</v>
+      </c>
+      <c r="E2546">
+        <v>0.515641002034223</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5">
+      <c r="A2547" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B2547">
+        <v>0.001679718738434172</v>
+      </c>
+      <c r="C2547">
+        <v>0.002939910694878899</v>
+      </c>
+      <c r="D2547">
+        <v>0.01474679582132784</v>
+      </c>
+      <c r="E2547">
+        <v>0.4942019336318717</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5">
+      <c r="A2548" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B2548">
+        <v>0.002395887932650284</v>
+      </c>
+      <c r="C2548">
+        <v>0.003457194892892325</v>
+      </c>
+      <c r="D2548">
+        <v>0.01471781569899412</v>
+      </c>
+      <c r="E2548">
+        <v>0.7078540401936425</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5">
+      <c r="A2549" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B2549">
+        <v>0.001666242646431483</v>
+      </c>
+      <c r="C2549">
+        <v>0.005594774872619657</v>
+      </c>
+      <c r="D2549">
+        <v>0.01481958063630145</v>
+      </c>
+      <c r="E2549">
+        <v>0.5251204214669486</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5">
+      <c r="A2550" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B2550">
+        <v>0.001275398427765528</v>
+      </c>
+      <c r="C2550">
+        <v>0.005036919956667548</v>
+      </c>
+      <c r="D2550">
+        <v>0.0147131272574058</v>
+      </c>
+      <c r="E2550">
+        <v>0.3912898693209839</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5">
+      <c r="A2551" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B2551">
+        <v>0.001505809842974431</v>
+      </c>
+      <c r="C2551">
+        <v>0.004761872790531584</v>
+      </c>
+      <c r="D2551">
+        <v>0.01473198310453668</v>
+      </c>
+      <c r="E2551">
+        <v>0.4808907576151034</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:5">
+      <c r="A2552" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B2552">
+        <v>0.001218479318047778</v>
+      </c>
+      <c r="C2552">
+        <v>0.007829239446222642</v>
+      </c>
+      <c r="D2552">
+        <v>0.01485061009900516</v>
+      </c>
+      <c r="E2552">
+        <v>0.3720989613810915</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:5">
+      <c r="A2553" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B2553">
+        <v>0.002129152875786878</v>
+      </c>
+      <c r="C2553">
+        <v>0.01962511457574129</v>
+      </c>
+      <c r="D2553">
+        <v>0.01530048979369168</v>
+      </c>
+      <c r="E2553">
+        <v>0.6544668234067197</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5">
+      <c r="A2554" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B2554">
+        <v>0.0006736764720616665</v>
+      </c>
+      <c r="C2554">
+        <v>0.01234448702961923</v>
+      </c>
+      <c r="D2554">
+        <v>0.01549249822683078</v>
+      </c>
+      <c r="E2554">
+        <v>0.207913049170995</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:5">
+      <c r="A2555" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B2555">
+        <v>0.001066071095231678</v>
+      </c>
+      <c r="C2555">
+        <v>0.0138168212488338</v>
+      </c>
+      <c r="D2555">
+        <v>0.01534627893065905</v>
+      </c>
+      <c r="E2555">
+        <v>0.3558974970974227</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:5">
+      <c r="A2556" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B2556">
+        <v>0.001121684691244232</v>
+      </c>
+      <c r="C2556">
+        <v>0.01174846499357416</v>
+      </c>
+      <c r="D2556">
+        <v>0.01560917767776449</v>
+      </c>
+      <c r="E2556">
+        <v>0.3607804926658571</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:5">
+      <c r="A2557" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B2557">
+        <v>0.00124143600159139</v>
+      </c>
+      <c r="C2557">
+        <v>0.01215926355753823</v>
+      </c>
+      <c r="D2557">
+        <v>0.01554070182169787</v>
+      </c>
+      <c r="E2557">
+        <v>0.4112072980118507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2557"/>
+  <dimension ref="A1:E2602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43669,6 +43669,771 @@
         <v>0.4112072980118507</v>
       </c>
     </row>
+    <row r="2558" spans="1:5">
+      <c r="A2558" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B2558">
+        <v>0.001636941182580123</v>
+      </c>
+      <c r="C2558">
+        <v>0.01516483102822328</v>
+      </c>
+      <c r="D2558">
+        <v>0.01560691157441969</v>
+      </c>
+      <c r="E2558">
+        <v>0.5384057517507045</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5">
+      <c r="A2559" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B2559">
+        <v>0.0009702830484069531</v>
+      </c>
+      <c r="C2559">
+        <v>0.01341989615278954</v>
+      </c>
+      <c r="D2559">
+        <v>0.01579571959823304</v>
+      </c>
+      <c r="E2559">
+        <v>0.327118603819018</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5">
+      <c r="A2560" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B2560">
+        <v>0.001938100793902441</v>
+      </c>
+      <c r="C2560">
+        <v>0.009557168349125327</v>
+      </c>
+      <c r="D2560">
+        <v>0.01576804851179305</v>
+      </c>
+      <c r="E2560">
+        <v>0.6486911042193207</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:5">
+      <c r="A2561" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B2561">
+        <v>0.003060611273766149</v>
+      </c>
+      <c r="C2561">
+        <v>0.02089710151648957</v>
+      </c>
+      <c r="D2561">
+        <v>0.0168593209969654</v>
+      </c>
+      <c r="E2561">
+        <v>0.8924523462385154</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5">
+      <c r="A2562" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B2562">
+        <v>0.001240377627410335</v>
+      </c>
+      <c r="C2562">
+        <v>0.002608613477711735</v>
+      </c>
+      <c r="D2562">
+        <v>0.01699669683180189</v>
+      </c>
+      <c r="E2562">
+        <v>0.4062995823897253</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5">
+      <c r="A2563" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B2563">
+        <v>0.002903732684929783</v>
+      </c>
+      <c r="C2563">
+        <v>0.003242739083151455</v>
+      </c>
+      <c r="D2563">
+        <v>0.01711084407881688</v>
+      </c>
+      <c r="E2563">
+        <v>0.9420054375091355</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5">
+      <c r="A2564" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B2564">
+        <v>0.001081470761770252</v>
+      </c>
+      <c r="C2564">
+        <v>0.002084933802749032</v>
+      </c>
+      <c r="D2564">
+        <v>0.01708842105125444</v>
+      </c>
+      <c r="E2564">
+        <v>0.3424397205347293</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:5">
+      <c r="A2565" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B2565">
+        <v>0.000776426418977968</v>
+      </c>
+      <c r="C2565">
+        <v>0.0119873394820718</v>
+      </c>
+      <c r="D2565">
+        <v>0.01709609959033023</v>
+      </c>
+      <c r="E2565">
+        <v>0.260518795196179</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5">
+      <c r="A2566" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B2566">
+        <v>0.001269075558589384</v>
+      </c>
+      <c r="C2566">
+        <v>0.00815558543046279</v>
+      </c>
+      <c r="D2566">
+        <v>0.01733488145069375</v>
+      </c>
+      <c r="E2566">
+        <v>0.4231117611531152</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:5">
+      <c r="A2567" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B2567">
+        <v>0.00321433879514187</v>
+      </c>
+      <c r="C2567">
+        <v>0.01590175048610258</v>
+      </c>
+      <c r="D2567">
+        <v>0.01751482948313574</v>
+      </c>
+      <c r="E2567">
+        <v>0.9844357769909822</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5">
+      <c r="A2568" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B2568">
+        <v>0.0015484716498448</v>
+      </c>
+      <c r="C2568">
+        <v>0.004205726465034511</v>
+      </c>
+      <c r="D2568">
+        <v>0.01740711452431467</v>
+      </c>
+      <c r="E2568">
+        <v>0.4983924543451242</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:5">
+      <c r="A2569" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B2569">
+        <v>0.001451419279194744</v>
+      </c>
+      <c r="C2569">
+        <v>0.007802880773627913</v>
+      </c>
+      <c r="D2569">
+        <v>0.01697146070006849</v>
+      </c>
+      <c r="E2569">
+        <v>0.4849718269040605</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5">
+      <c r="A2570" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B2570">
+        <v>0.001949563730410567</v>
+      </c>
+      <c r="C2570">
+        <v>0.0111983912718906</v>
+      </c>
+      <c r="D2570">
+        <v>0.01692337842332584</v>
+      </c>
+      <c r="E2570">
+        <v>0.6775002420639733</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:5">
+      <c r="A2571" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B2571">
+        <v>0.001236782525818168</v>
+      </c>
+      <c r="C2571">
+        <v>0.001228804131824724</v>
+      </c>
+      <c r="D2571">
+        <v>0.01704338054725457</v>
+      </c>
+      <c r="E2571">
+        <v>0.416981788214815</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:5">
+      <c r="A2572" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B2572">
+        <v>0.0009171375430729774</v>
+      </c>
+      <c r="C2572">
+        <v>0.01094178489771094</v>
+      </c>
+      <c r="D2572">
+        <v>0.01671114183581957</v>
+      </c>
+      <c r="E2572">
+        <v>0.325405699202762</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:5">
+      <c r="A2573" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B2573">
+        <v>0.001756591104331089</v>
+      </c>
+      <c r="C2573">
+        <v>0.01387961506874951</v>
+      </c>
+      <c r="D2573">
+        <v>0.01693776178751235</v>
+      </c>
+      <c r="E2573">
+        <v>0.5893001313942321</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:5">
+      <c r="A2574" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B2574">
+        <v>0.001093818599474425</v>
+      </c>
+      <c r="C2574">
+        <v>0.007745098060028382</v>
+      </c>
+      <c r="D2574">
+        <v>0.01692583698794633</v>
+      </c>
+      <c r="E2574">
+        <v>0.381821054062677</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:5">
+      <c r="A2575" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B2575">
+        <v>0.0009092068072117052</v>
+      </c>
+      <c r="C2575">
+        <v>0.008434641734673115</v>
+      </c>
+      <c r="D2575">
+        <v>0.01710957877778152</v>
+      </c>
+      <c r="E2575">
+        <v>0.3203047639974149</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:5">
+      <c r="A2576" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B2576">
+        <v>0.001052729156339597</v>
+      </c>
+      <c r="C2576">
+        <v>0.01142377685589558</v>
+      </c>
+      <c r="D2576">
+        <v>0.01714987864878719</v>
+      </c>
+      <c r="E2576">
+        <v>0.3751222080591857</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:5">
+      <c r="A2577" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B2577">
+        <v>0.001589035238506822</v>
+      </c>
+      <c r="C2577">
+        <v>0.0006673823914637386</v>
+      </c>
+      <c r="D2577">
+        <v>0.01726828012756109</v>
+      </c>
+      <c r="E2577">
+        <v>0.5785046772266128</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:5">
+      <c r="A2578" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B2578">
+        <v>0.001288138086739819</v>
+      </c>
+      <c r="C2578">
+        <v>0.01309115210298243</v>
+      </c>
+      <c r="D2578">
+        <v>0.01722770311843139</v>
+      </c>
+      <c r="E2578">
+        <v>0.4583209890083984</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:5">
+      <c r="A2579" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B2579">
+        <v>0.002007128401003191</v>
+      </c>
+      <c r="C2579">
+        <v>0.01138232669030956</v>
+      </c>
+      <c r="D2579">
+        <v>0.01712239632325538</v>
+      </c>
+      <c r="E2579">
+        <v>0.689615024801925</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:5">
+      <c r="A2580" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B2580">
+        <v>0.00135822217258173</v>
+      </c>
+      <c r="C2580">
+        <v>0.02278683257789403</v>
+      </c>
+      <c r="D2580">
+        <v>0.01702935055146734</v>
+      </c>
+      <c r="E2580">
+        <v>0.4708946631182186</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:5">
+      <c r="A2581" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B2581">
+        <v>0.001154875237130764</v>
+      </c>
+      <c r="C2581">
+        <v>0.005120451098710987</v>
+      </c>
+      <c r="D2581">
+        <v>0.01718612944348402</v>
+      </c>
+      <c r="E2581">
+        <v>0.403270162465761</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:5">
+      <c r="A2582" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B2582">
+        <v>0.001138290630893424</v>
+      </c>
+      <c r="C2582">
+        <v>0.009189535098503517</v>
+      </c>
+      <c r="D2582">
+        <v>0.01718790213267347</v>
+      </c>
+      <c r="E2582">
+        <v>0.4135980015047283</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:5">
+      <c r="A2583" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B2583">
+        <v>0.001321940175815506</v>
+      </c>
+      <c r="C2583">
+        <v>0.008263973394966255</v>
+      </c>
+      <c r="D2583">
+        <v>0.0173513583507856</v>
+      </c>
+      <c r="E2583">
+        <v>0.4831294557279132</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:5">
+      <c r="A2584" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B2584">
+        <v>0.0007986551859817481</v>
+      </c>
+      <c r="C2584">
+        <v>0.002539589129588333</v>
+      </c>
+      <c r="D2584">
+        <v>0.01706429645748402</v>
+      </c>
+      <c r="E2584">
+        <v>0.2914752032833295</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:5">
+      <c r="A2585" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B2585">
+        <v>0.001648803276949285</v>
+      </c>
+      <c r="C2585">
+        <v>0.003775547389600835</v>
+      </c>
+      <c r="D2585">
+        <v>0.01684468751249404</v>
+      </c>
+      <c r="E2585">
+        <v>0.5998856970833586</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:5">
+      <c r="A2586" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B2586">
+        <v>0.001411724652372536</v>
+      </c>
+      <c r="C2586">
+        <v>0.006633202034722357</v>
+      </c>
+      <c r="D2586">
+        <v>0.01700872561092995</v>
+      </c>
+      <c r="E2586">
+        <v>0.5075252491905908</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:5">
+      <c r="A2587" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B2587">
+        <v>0.001121655820831104</v>
+      </c>
+      <c r="C2587">
+        <v>0.008988199108020345</v>
+      </c>
+      <c r="D2587">
+        <v>0.01703983736919049</v>
+      </c>
+      <c r="E2587">
+        <v>0.3750332472582053</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:5">
+      <c r="A2588" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B2588">
+        <v>0.001224359040100173</v>
+      </c>
+      <c r="C2588">
+        <v>0.008237591394709922</v>
+      </c>
+      <c r="D2588">
+        <v>0.01697704555062667</v>
+      </c>
+      <c r="E2588">
+        <v>0.4444301589386643</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:5">
+      <c r="A2589" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B2589">
+        <v>0.001401104753444118</v>
+      </c>
+      <c r="C2589">
+        <v>0.005448774232118558</v>
+      </c>
+      <c r="D2589">
+        <v>0.01710599988809672</v>
+      </c>
+      <c r="E2589">
+        <v>0.473549723842744</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:5">
+      <c r="A2590" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B2590">
+        <v>0.002102684123966549</v>
+      </c>
+      <c r="C2590">
+        <v>0.004300641663894302</v>
+      </c>
+      <c r="D2590">
+        <v>0.01701395065271805</v>
+      </c>
+      <c r="E2590">
+        <v>0.7647075699095464</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:5">
+      <c r="A2591" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B2591">
+        <v>0.001412785722068999</v>
+      </c>
+      <c r="C2591">
+        <v>0.009730817254285238</v>
+      </c>
+      <c r="D2591">
+        <v>0.01717245960438558</v>
+      </c>
+      <c r="E2591">
+        <v>0.5135371813067583</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:5">
+      <c r="A2592" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B2592">
+        <v>0.001199323172279827</v>
+      </c>
+      <c r="C2592">
+        <v>0.006754304558049687</v>
+      </c>
+      <c r="D2592">
+        <v>0.01718494865763493</v>
+      </c>
+      <c r="E2592">
+        <v>0.4362960473902431</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:5">
+      <c r="A2593" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B2593">
+        <v>0.0009854488430634306</v>
+      </c>
+      <c r="C2593">
+        <v>0.0006903533589062231</v>
+      </c>
+      <c r="D2593">
+        <v>0.01703367252197674</v>
+      </c>
+      <c r="E2593">
+        <v>0.3661644151407769</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:5">
+      <c r="A2594" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B2594">
+        <v>0.00113216899247847</v>
+      </c>
+      <c r="C2594">
+        <v>0.001372234701196537</v>
+      </c>
+      <c r="D2594">
+        <v>0.01721070661487762</v>
+      </c>
+      <c r="E2594">
+        <v>0.404953644093699</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:5">
+      <c r="A2595" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B2595">
+        <v>0.001078955179965828</v>
+      </c>
+      <c r="C2595">
+        <v>0.0061135147159829</v>
+      </c>
+      <c r="D2595">
+        <v>0.01708994475027028</v>
+      </c>
+      <c r="E2595">
+        <v>0.3971017006533996</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:5">
+      <c r="A2596" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B2596">
+        <v>0.001398949588846454</v>
+      </c>
+      <c r="C2596">
+        <v>0.006367357572625283</v>
+      </c>
+      <c r="D2596">
+        <v>0.01710450847381517</v>
+      </c>
+      <c r="E2596">
+        <v>0.5177558029794173</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:5">
+      <c r="A2597" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B2597">
+        <v>0.001163766510805629</v>
+      </c>
+      <c r="C2597">
+        <v>0.00719851162604296</v>
+      </c>
+      <c r="D2597">
+        <v>0.01726172943723966</v>
+      </c>
+      <c r="E2597">
+        <v>0.4319637588732591</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:5">
+      <c r="A2598" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B2598">
+        <v>0.001509199902178542</v>
+      </c>
+      <c r="C2598">
+        <v>0.005508427910122739</v>
+      </c>
+      <c r="D2598">
+        <v>0.01725438032975672</v>
+      </c>
+      <c r="E2598">
+        <v>0.5746000263472435</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:5">
+      <c r="A2599" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B2599">
+        <v>0.001416584566350691</v>
+      </c>
+      <c r="C2599">
+        <v>0.007528153658821611</v>
+      </c>
+      <c r="D2599">
+        <v>0.01734272046545914</v>
+      </c>
+      <c r="E2599">
+        <v>0.5113705778629133</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:5">
+      <c r="A2600" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B2600">
+        <v>0.001934342346639485</v>
+      </c>
+      <c r="C2600">
+        <v>0.000727510869478146</v>
+      </c>
+      <c r="D2600">
+        <v>0.01763099644188024</v>
+      </c>
+      <c r="E2600">
+        <v>0.7299516788039352</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:5">
+      <c r="A2601" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B2601">
+        <v>0.003233047027496099</v>
+      </c>
+      <c r="C2601">
+        <v>0.002444965025460556</v>
+      </c>
+      <c r="D2601">
+        <v>0.01806491980028024</v>
+      </c>
+      <c r="E2601">
+        <v>0.9736121770326505</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:5">
+      <c r="A2602" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B2602">
+        <v>0.001697019190759682</v>
+      </c>
+      <c r="C2602">
+        <v>0.003502117165506536</v>
+      </c>
+      <c r="D2602">
+        <v>0.01795529614682951</v>
+      </c>
+      <c r="E2602">
+        <v>0.6023186933405117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2602"/>
+  <dimension ref="A1:E2612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44434,6 +44434,176 @@
         <v>0.6023186933405117</v>
       </c>
     </row>
+    <row r="2603" spans="1:5">
+      <c r="A2603" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B2603">
+        <v>0.001588033681183183</v>
+      </c>
+      <c r="C2603">
+        <v>0.00586515642983914</v>
+      </c>
+      <c r="D2603">
+        <v>0.01798083454520213</v>
+      </c>
+      <c r="E2603">
+        <v>0.5588617820148498</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:5">
+      <c r="A2604" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B2604">
+        <v>0.001342552112656677</v>
+      </c>
+      <c r="C2604">
+        <v>0.008697301333243215</v>
+      </c>
+      <c r="D2604">
+        <v>0.01796558640651636</v>
+      </c>
+      <c r="E2604">
+        <v>0.4750039910880931</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:5">
+      <c r="A2605" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B2605">
+        <v>0.001671016683390174</v>
+      </c>
+      <c r="C2605">
+        <v>0.006890438028193792</v>
+      </c>
+      <c r="D2605">
+        <v>0.01807541545151747</v>
+      </c>
+      <c r="E2605">
+        <v>0.5947336864407506</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:5">
+      <c r="A2606" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B2606">
+        <v>0.001313367842796599</v>
+      </c>
+      <c r="C2606">
+        <v>0.007613153054208882</v>
+      </c>
+      <c r="D2606">
+        <v>0.01798709404527969</v>
+      </c>
+      <c r="E2606">
+        <v>0.4711300346024793</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:5">
+      <c r="A2607" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B2607">
+        <v>0.001702991159550519</v>
+      </c>
+      <c r="C2607">
+        <v>0.007088617436891354</v>
+      </c>
+      <c r="D2607">
+        <v>0.01794385156163168</v>
+      </c>
+      <c r="E2607">
+        <v>0.6332835929550739</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:5">
+      <c r="A2608" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B2608">
+        <v>0.001328732038809868</v>
+      </c>
+      <c r="C2608">
+        <v>0.004865216955103937</v>
+      </c>
+      <c r="D2608">
+        <v>0.01793475228544874</v>
+      </c>
+      <c r="E2608">
+        <v>0.4778948597187458</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:5">
+      <c r="A2609" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B2609">
+        <v>0.002635167072874423</v>
+      </c>
+      <c r="C2609">
+        <v>0.007987983075987762</v>
+      </c>
+      <c r="D2609">
+        <v>0.01775639800699321</v>
+      </c>
+      <c r="E2609">
+        <v>0.9001740148771049</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:5">
+      <c r="A2610" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B2610">
+        <v>0.001285285909029142</v>
+      </c>
+      <c r="C2610">
+        <v>0.007376154086982301</v>
+      </c>
+      <c r="D2610">
+        <v>0.01782007142977864</v>
+      </c>
+      <c r="E2610">
+        <v>0.4604431449887349</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:5">
+      <c r="A2611" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B2611">
+        <v>0.003952126675060678</v>
+      </c>
+      <c r="C2611">
+        <v>0.01033804298025361</v>
+      </c>
+      <c r="D2611">
+        <v>0.01773656291137587</v>
+      </c>
+      <c r="E2611">
+        <v>1.296717278445914</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:5">
+      <c r="A2612" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B2612">
+        <v>0.00174325973261259</v>
+      </c>
+      <c r="C2612">
+        <v>0.0002986639496986064</v>
+      </c>
+      <c r="D2612">
+        <v>0.0176170844902298</v>
+      </c>
+      <c r="E2612">
+        <v>0.6022398477415842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2612"/>
+  <dimension ref="A1:E2616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44604,6 +44604,74 @@
         <v>0.6022398477415842</v>
       </c>
     </row>
+    <row r="2613" spans="1:5">
+      <c r="A2613" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B2613">
+        <v>0.002898504482894977</v>
+      </c>
+      <c r="C2613">
+        <v>0.004157257106022482</v>
+      </c>
+      <c r="D2613">
+        <v>0.01772241117665853</v>
+      </c>
+      <c r="E2613">
+        <v>0.9980214440073314</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:5">
+      <c r="A2614" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B2614">
+        <v>0.001928073682157792</v>
+      </c>
+      <c r="C2614">
+        <v>0.009706306704003159</v>
+      </c>
+      <c r="D2614">
+        <v>0.01700736134463297</v>
+      </c>
+      <c r="E2614">
+        <v>0.6373204997329306</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:5">
+      <c r="A2615" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B2615">
+        <v>0.001822950731303048</v>
+      </c>
+      <c r="C2615">
+        <v>0.007138819038588453</v>
+      </c>
+      <c r="D2615">
+        <v>0.01676519426576978</v>
+      </c>
+      <c r="E2615">
+        <v>0.6282022678471246</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:5">
+      <c r="A2616" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B2616">
+        <v>0.003879181390471392</v>
+      </c>
+      <c r="C2616">
+        <v>0.01365495913807789</v>
+      </c>
+      <c r="D2616">
+        <v>0.01698266846519244</v>
+      </c>
+      <c r="E2616">
+        <v>1.334264748836212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website/everyday-update/data/amihud_liquidity.xlsx
+++ b/website/everyday-update/data/amihud_liquidity.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2616"/>
+  <dimension ref="A1:E2626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44672,6 +44672,176 @@
         <v>1.334264748836212</v>
       </c>
     </row>
+    <row r="2617" spans="1:5">
+      <c r="A2617" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B2617">
+        <v>0.002777801864893935</v>
+      </c>
+      <c r="C2617">
+        <v>0.01562598788032846</v>
+      </c>
+      <c r="D2617">
+        <v>0.0166775769086591</v>
+      </c>
+      <c r="E2617">
+        <v>0.9748078694672426</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:5">
+      <c r="A2618" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B2618">
+        <v>0.001102345263541368</v>
+      </c>
+      <c r="C2618">
+        <v>0.006132377688202965</v>
+      </c>
+      <c r="D2618">
+        <v>0.01664951320105115</v>
+      </c>
+      <c r="E2618">
+        <v>0.4084007715647621</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:5">
+      <c r="A2619" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B2619">
+        <v>0.001656709076702217</v>
+      </c>
+      <c r="C2619">
+        <v>0.004524456810369133</v>
+      </c>
+      <c r="D2619">
+        <v>0.01662051117411378</v>
+      </c>
+      <c r="E2619">
+        <v>0.65193666716381</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:5">
+      <c r="A2620" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B2620">
+        <v>0.001657565029919954</v>
+      </c>
+      <c r="C2620">
+        <v>0.003707516286869311</v>
+      </c>
+      <c r="D2620">
+        <v>0.01648720603382195</v>
+      </c>
+      <c r="E2620">
+        <v>0.5766584606167312</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:5">
+      <c r="A2621" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B2621">
+        <v>0.001361921195575164</v>
+      </c>
+      <c r="C2621">
+        <v>0.005190931743901119</v>
+      </c>
+      <c r="D2621">
+        <v>0.01546347078191501</v>
+      </c>
+      <c r="E2621">
+        <v>0.4985886755784852</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:5">
+      <c r="A2622" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B2622">
+        <v>0.001498351404434986</v>
+      </c>
+      <c r="C2622">
+        <v>0.008233984282638695</v>
+      </c>
+      <c r="D2622">
+        <v>0.0154553031953034</v>
+      </c>
+      <c r="E2622">
+        <v>0.5318703783175417</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:5">
+      <c r="A2623" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B2623">
+        <v>0.00150025789314641</v>
+      </c>
+      <c r="C2623">
+        <v>0.003689952468553384</v>
+      </c>
+      <c r="D2623">
+        <v>0.01536027137051825</v>
+      </c>
+      <c r="E2623">
+        <v>0.5532453639893071</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:5">
+      <c r="A2624" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B2624">
+        <v>0.002293103886367432</v>
+      </c>
+      <c r="C2624">
+        <v>0.01044523768927582</v>
+      </c>
+      <c r="D2624">
+        <v>0.01504682377209452</v>
+      </c>
+      <c r="E2624">
+        <v>0.8248693353662092</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:5">
+      <c r="A2625" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B2625">
+        <v>0.001455585034079707</v>
+      </c>
+      <c r="C2625">
+        <v>5.16211044652303e-05</v>
+      </c>
+      <c r="D2625">
+        <v>0.0151226328203231</v>
+      </c>
+      <c r="E2625">
+        <v>0.5484463195616073</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:5">
+      <c r="A2626" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B2626">
+        <v>0.002165763508666276</v>
+      </c>
+      <c r="C2626">
+        <v>0.009001279736263842</v>
+      </c>
+      <c r="D2626">
+        <v>0.01517216439981032</v>
+      </c>
+      <c r="E2626">
+        <v>0.7891892223278295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
